--- a/2023.Roblox/Roblox 레벨 디자인.xlsx
+++ b/2023.Roblox/Roblox 레벨 디자인.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MyProject\2023.Roblox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D71A6C-7525-42ED-AC82-3DF5EF64DA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380E4805-5F7C-4085-A2AF-7FDCDA0B3F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="75" windowWidth="15240" windowHeight="14580" xr2:uid="{73F96789-C3E0-4AC3-8311-5D960649D742}"/>
+    <workbookView xWindow="20085" yWindow="780" windowWidth="14685" windowHeight="14700" xr2:uid="{73F96789-C3E0-4AC3-8311-5D960649D742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길이(가로x세로)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평범한 집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,14 +69,6 @@
   </si>
   <si>
     <t>점프맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12X12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조혜진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -112,15 +96,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16X240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원장실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 병실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥상 공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추격 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배드엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,6 +589,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,30 +629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7C8099-3A15-4236-9079-29176EF2DE3D}">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,43 +958,40 @@
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="14"/>
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14"/>
-    <col min="7" max="7" width="14.375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9" style="14"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
@@ -963,293 +1004,320 @@
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="12"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="12"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="16"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="12"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="12"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="12"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F21" s="16"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F22" s="16"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="16"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="12"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="12"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="16"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="12"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F26" s="16"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="12"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F27" s="16"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="12"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="16"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="12"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="16"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="12"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="16"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="12"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="16"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="12"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="16"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="28"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
